--- a/data/historical_estimates/processed/historical_regional_bycatch_rates.xlsx
+++ b/data/historical_estimates/processed/historical_regional_bycatch_rates.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/ca_set_gillnet_bycatch/data/historical_estimates/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DEC431-78B3-964F-B020-612656C2EF2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E907D094-5D95-254E-B721-4C6DA667D0EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12160" yWindow="500" windowWidth="29260" windowHeight="23680" xr2:uid="{5A99BFBD-397F-5E4D-9DDE-0D5E2C6602A4}"/>
   </bookViews>
@@ -159,7 +159,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -212,7 +212,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -533,8 +533,8 @@
   <dimension ref="A1:O87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K74" sqref="K74"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/historical_estimates/processed/historical_regional_bycatch_rates.xlsx
+++ b/data/historical_estimates/processed/historical_regional_bycatch_rates.xlsx
@@ -1,31 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/ca_set_gillnet_bycatch/data/historical_estimates/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E907D094-5D95-254E-B721-4C6DA667D0EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C55C3C4-AD0C-6E41-A1BF-178195ECB62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12160" yWindow="500" windowWidth="29260" windowHeight="23680" xr2:uid="{5A99BFBD-397F-5E4D-9DDE-0D5E2C6602A4}"/>
+    <workbookView xWindow="17640" yWindow="500" windowWidth="29260" windowHeight="20200" activeTab="1" xr2:uid="{5A99BFBD-397F-5E4D-9DDE-0D5E2C6602A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="87">
   <si>
     <t>reference</t>
   </si>
@@ -151,6 +163,141 @@
   </si>
   <si>
     <t>kill_per_set</t>
+  </si>
+  <si>
+    <t>n_sets</t>
+  </si>
+  <si>
+    <t>158 total / 4 quarters</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>Hanan et al. (1988)</t>
+  </si>
+  <si>
+    <t>22 total / 4 quarters</t>
+  </si>
+  <si>
+    <t>288 total / 4 quarters</t>
+  </si>
+  <si>
+    <t>430 total / 4 quarters</t>
+  </si>
+  <si>
+    <t>300 / 4</t>
+  </si>
+  <si>
+    <t>126 / 4</t>
+  </si>
+  <si>
+    <t>374 / 4</t>
+  </si>
+  <si>
+    <t>571 / 4</t>
+  </si>
+  <si>
+    <t>quarter</t>
+  </si>
+  <si>
+    <t>348 / 4</t>
+  </si>
+  <si>
+    <t>49 / 4</t>
+  </si>
+  <si>
+    <t>317 / 4</t>
+  </si>
+  <si>
+    <t>339 / 4</t>
+  </si>
+  <si>
+    <t>180 / 4</t>
+  </si>
+  <si>
+    <t>349 / 4</t>
+  </si>
+  <si>
+    <t>350 / 4</t>
+  </si>
+  <si>
+    <t>351 / 4</t>
+  </si>
+  <si>
+    <t>50 / 4</t>
+  </si>
+  <si>
+    <t>51 / 4</t>
+  </si>
+  <si>
+    <t>52 / 4</t>
+  </si>
+  <si>
+    <t>318 / 4</t>
+  </si>
+  <si>
+    <t>319 / 4</t>
+  </si>
+  <si>
+    <t>320 / 4</t>
+  </si>
+  <si>
+    <t>340 / 4</t>
+  </si>
+  <si>
+    <t>341 / 4</t>
+  </si>
+  <si>
+    <t>342 / 4</t>
+  </si>
+  <si>
+    <t>181 / 4</t>
+  </si>
+  <si>
+    <t>182 / 4</t>
+  </si>
+  <si>
+    <t>183 / 4</t>
+  </si>
+  <si>
+    <t>Hanan &amp; Diamond (1989)</t>
+  </si>
+  <si>
+    <t>36 / 4</t>
+  </si>
+  <si>
+    <t>True 0</t>
+  </si>
+  <si>
+    <t>Months 4-6</t>
+  </si>
+  <si>
+    <t>94 / 3</t>
+  </si>
+  <si>
+    <t>280 / 3</t>
+  </si>
+  <si>
+    <t>48 / 3</t>
+  </si>
+  <si>
+    <t>True 18</t>
+  </si>
+  <si>
+    <t>True 145</t>
+  </si>
+  <si>
+    <t>13 + 5 from Table 2</t>
+  </si>
+  <si>
+    <t>401 / 3</t>
+  </si>
+  <si>
+    <t>402 / 3</t>
+  </si>
+  <si>
+    <t>403 / 3</t>
   </si>
 </sst>
 </file>
@@ -161,7 +308,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -180,6 +327,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -206,13 +359,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -234,9 +386,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -274,7 +426,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -380,7 +532,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -522,7 +674,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -532,9 +684,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{168D4012-25B1-664D-9B8A-EC31C4C75F0A}">
   <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q19" sqref="Q19"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -603,1712 +755,1712 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>1983</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2">
         <v>4</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2">
         <v>158</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2">
         <v>5402</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="4">
         <f>G2/H2</f>
         <v>2.5316455696202531E-2</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="3">
         <f>N2*L2</f>
         <v>136.75949367088609</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>1983</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3">
         <v>12</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3">
         <v>22</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3">
         <v>518</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="4">
         <f t="shared" ref="N3:N17" si="0">G3/H3</f>
         <v>0.54545454545454541</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="3">
         <f t="shared" ref="O3:O17" si="1">N3*L3</f>
         <v>282.5454545454545</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>1983</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4">
         <v>41</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4">
         <v>288</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4">
         <v>3196</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="4">
         <f t="shared" si="0"/>
         <v>0.1423611111111111</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="3">
         <f t="shared" si="1"/>
         <v>454.98611111111109</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>1983</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5">
         <v>16</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5">
         <v>430</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5">
         <v>14461</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <f t="shared" si="0"/>
         <v>3.7209302325581395E-2</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="3">
         <f t="shared" si="1"/>
         <v>538.08372093023252</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>1983</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6">
         <v>0</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6">
         <v>1697</v>
       </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="4"/>
-    </row>
-    <row r="7" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="N6" s="4"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>1983</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="4"/>
-    </row>
-    <row r="8" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="N7" s="4"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>1983</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8">
         <v>3</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8">
         <v>64</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8">
         <v>936</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="4">
         <f t="shared" si="0"/>
         <v>4.6875E-2</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="3">
         <f t="shared" si="1"/>
         <v>43.875</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>1983</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9">
         <v>6</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9">
         <v>71</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9">
         <v>10950</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="4">
         <f t="shared" si="0"/>
         <v>8.4507042253521125E-2</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <f t="shared" si="1"/>
         <v>925.35211267605632</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>1983</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10">
         <v>11</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10">
         <v>158</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10">
         <v>5402</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="4">
         <f t="shared" si="0"/>
         <v>6.9620253164556958E-2</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="3">
         <f t="shared" si="1"/>
         <v>376.08860759493666</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11">
         <v>1983</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11">
         <v>22</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11">
         <v>518</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12">
         <v>1983</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12">
         <v>17</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12">
         <v>288</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12">
         <v>3196</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="4">
         <f t="shared" si="0"/>
         <v>5.9027777777777776E-2</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="3">
         <f t="shared" si="1"/>
         <v>188.65277777777777</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13">
         <v>1983</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13">
         <v>3</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13">
         <v>430</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13">
         <v>14461</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="4">
         <f t="shared" si="0"/>
         <v>6.9767441860465115E-3</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="3">
         <f t="shared" si="1"/>
         <v>100.8906976744186</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14">
         <v>1983</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14">
         <v>0</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14">
         <v>1697</v>
       </c>
-      <c r="N14" s="5"/>
-      <c r="O14" s="4"/>
-    </row>
-    <row r="15" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="N14" s="4"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15">
         <v>1983</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" t="s">
         <v>14</v>
       </c>
-      <c r="N15" s="5"/>
-      <c r="O15" s="4"/>
-    </row>
-    <row r="16" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="N15" s="4"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16">
         <v>1983</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16">
         <v>0</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16">
         <v>64</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16">
         <v>936</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17">
         <v>1983</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17">
         <v>0</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17">
         <v>71</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17">
         <v>10950</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18">
         <v>1984</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18">
         <v>8</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18">
         <v>300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18">
         <v>4117</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="4">
         <f t="shared" ref="N18:N41" si="2">G18/H18</f>
         <v>2.6666666666666668E-2</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="3">
         <f t="shared" ref="O18:O41" si="3">N18*L18</f>
         <v>109.78666666666668</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19">
         <v>1984</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19">
         <v>19</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19">
         <v>126</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19">
         <v>1606</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="4">
         <f t="shared" si="2"/>
         <v>0.15079365079365079</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="3">
         <f t="shared" si="3"/>
         <v>242.17460317460316</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20">
         <v>1984</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20">
         <v>22</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20">
         <v>374</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20">
         <v>4115</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N20" s="4">
         <f t="shared" si="2"/>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="3">
         <f t="shared" si="3"/>
         <v>242.05882352941177</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21">
         <v>1984</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21">
         <v>13</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21">
         <v>571</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21">
         <v>19691</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" s="4">
         <f t="shared" si="2"/>
         <v>2.276707530647986E-2</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="3">
         <f t="shared" si="3"/>
         <v>448.30647985989492</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22">
         <v>1984</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22">
         <v>0</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22">
         <v>2310</v>
       </c>
-      <c r="N22" s="5"/>
-      <c r="O22" s="4"/>
-    </row>
-    <row r="23" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="N22" s="4"/>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23">
         <v>1984</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23">
         <v>5</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23">
         <v>233</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23">
         <v>3328</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N23" s="4">
         <f t="shared" si="2"/>
         <v>2.1459227467811159E-2</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="3">
         <f t="shared" si="3"/>
         <v>71.41630901287553</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24">
         <v>1984</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24">
         <v>2</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24">
         <v>119</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24">
         <v>1988</v>
       </c>
-      <c r="N24" s="5">
+      <c r="N24" s="4">
         <f t="shared" si="2"/>
         <v>1.680672268907563E-2</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="3">
         <f t="shared" si="3"/>
         <v>33.411764705882355</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25">
         <v>1984</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25">
         <v>1</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25">
         <v>44</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25">
         <v>10000</v>
       </c>
-      <c r="N25" s="5">
+      <c r="N25" s="4">
         <f t="shared" si="2"/>
         <v>2.2727272727272728E-2</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="3">
         <f t="shared" si="3"/>
         <v>227.27272727272728</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26">
         <v>1984</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26">
         <v>22</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26">
         <v>300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26">
         <v>4117</v>
       </c>
-      <c r="N26" s="5">
+      <c r="N26" s="4">
         <f t="shared" si="2"/>
         <v>7.3333333333333334E-2</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O26" s="3">
         <f t="shared" si="3"/>
         <v>301.91333333333336</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27">
         <v>1984</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27">
         <v>10</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27">
         <v>126</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27">
         <v>1606</v>
       </c>
-      <c r="N27" s="5">
+      <c r="N27" s="4">
         <f t="shared" si="2"/>
         <v>7.9365079365079361E-2</v>
       </c>
-      <c r="O27" s="4">
+      <c r="O27" s="3">
         <f t="shared" si="3"/>
         <v>127.46031746031746</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28">
         <v>1984</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28">
         <v>29</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28">
         <v>374</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28">
         <v>4115</v>
       </c>
-      <c r="N28" s="5">
+      <c r="N28" s="4">
         <f t="shared" si="2"/>
         <v>7.7540106951871662E-2</v>
       </c>
-      <c r="O28" s="4">
+      <c r="O28" s="3">
         <f t="shared" si="3"/>
         <v>319.07754010695191</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29">
         <v>1984</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29">
         <v>4</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29">
         <v>571</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29">
         <v>19691</v>
       </c>
-      <c r="N29" s="5">
+      <c r="N29" s="4">
         <f t="shared" si="2"/>
         <v>7.0052539404553416E-3</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O29" s="3">
         <f t="shared" si="3"/>
         <v>137.94045534150612</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30">
         <v>1984</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30">
         <v>0</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30">
         <v>2310</v>
       </c>
-      <c r="N30" s="5"/>
-      <c r="O30" s="4"/>
-    </row>
-    <row r="31" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+      <c r="N30" s="4"/>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31">
         <v>1984</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31">
         <v>0</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31">
         <v>233</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L31">
         <v>3328</v>
       </c>
-      <c r="N31" s="5">
+      <c r="N31" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O31" s="4">
+      <c r="O31" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32">
         <v>1984</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" t="s">
         <v>34</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32">
         <v>1</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32">
         <v>119</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32">
         <v>1988</v>
       </c>
-      <c r="N32" s="5">
+      <c r="N32" s="4">
         <f t="shared" si="2"/>
         <v>8.4033613445378148E-3</v>
       </c>
-      <c r="O32" s="4">
+      <c r="O32" s="3">
         <f t="shared" si="3"/>
         <v>16.705882352941178</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33">
         <v>1984</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" t="s">
         <v>34</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33">
         <v>0</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33">
         <v>44</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33">
         <v>10000</v>
       </c>
-      <c r="N33" s="5">
+      <c r="N33" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O33" s="4">
+      <c r="O33" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34">
         <v>1985</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" t="s">
         <v>5</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" t="s">
         <v>9</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34">
         <v>3</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34">
         <v>348</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34">
         <v>3010</v>
       </c>
-      <c r="N34" s="5">
+      <c r="N34" s="4">
         <f t="shared" si="2"/>
         <v>8.6206896551724137E-3</v>
       </c>
-      <c r="O34" s="4">
+      <c r="O34" s="3">
         <f t="shared" si="3"/>
         <v>25.948275862068964</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35">
         <v>1985</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" t="s">
         <v>10</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35">
         <v>4</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35">
         <v>49</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35">
         <v>1255</v>
       </c>
-      <c r="N35" s="5">
+      <c r="N35" s="4">
         <f t="shared" si="2"/>
         <v>8.1632653061224483E-2</v>
       </c>
-      <c r="O35" s="4">
+      <c r="O35" s="3">
         <f t="shared" si="3"/>
         <v>102.44897959183673</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36">
         <v>1985</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" t="s">
         <v>5</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36">
         <v>25</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36">
         <v>317</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36">
         <v>3464</v>
       </c>
-      <c r="N36" s="5">
+      <c r="N36" s="4">
         <f t="shared" si="2"/>
         <v>7.8864353312302835E-2</v>
       </c>
-      <c r="O36" s="4">
+      <c r="O36" s="3">
         <f t="shared" si="3"/>
         <v>273.18611987381701</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37">
         <v>1985</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" t="s">
         <v>5</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" t="s">
         <v>12</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37">
         <v>5</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37">
         <v>339</v>
       </c>
-      <c r="L37" s="3">
+      <c r="L37">
         <v>18425</v>
       </c>
-      <c r="N37" s="5">
+      <c r="N37" s="4">
         <f t="shared" si="2"/>
         <v>1.4749262536873156E-2</v>
       </c>
-      <c r="O37" s="4">
+      <c r="O37" s="3">
         <f t="shared" si="3"/>
         <v>271.75516224188789</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38">
         <v>1985</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38">
         <v>44</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38">
         <v>180</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38">
         <v>5319</v>
       </c>
-      <c r="N38" s="5">
+      <c r="N38" s="4">
         <f t="shared" si="2"/>
         <v>0.24444444444444444</v>
       </c>
-      <c r="O38" s="4">
+      <c r="O38" s="3">
         <f t="shared" si="3"/>
         <v>1300.2</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39">
         <v>1985</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" t="s">
         <v>5</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39">
         <v>1</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39">
         <v>193</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L39">
         <v>5356</v>
       </c>
-      <c r="N39" s="5">
+      <c r="N39" s="4">
         <f t="shared" si="2"/>
         <v>5.1813471502590676E-3</v>
       </c>
-      <c r="O39" s="4">
+      <c r="O39" s="3">
         <f t="shared" si="3"/>
         <v>27.751295336787567</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40">
         <v>1985</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" t="s">
         <v>5</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40">
         <v>1</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40">
         <v>73</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L40">
         <v>2275</v>
       </c>
-      <c r="N40" s="5">
+      <c r="N40" s="4">
         <f t="shared" si="2"/>
         <v>1.3698630136986301E-2</v>
       </c>
-      <c r="O40" s="4">
+      <c r="O40" s="3">
         <f t="shared" si="3"/>
         <v>31.164383561643834</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41">
         <v>1985</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" t="s">
         <v>5</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" t="s">
         <v>36</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41">
         <v>1</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41">
         <v>66</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41">
         <v>10000</v>
       </c>
-      <c r="N41" s="5">
+      <c r="N41" s="4">
         <f t="shared" si="2"/>
         <v>1.5151515151515152E-2</v>
       </c>
-      <c r="O41" s="4">
+      <c r="O41" s="3">
         <f t="shared" si="3"/>
         <v>151.51515151515153</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42">
         <v>1985</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" t="s">
         <v>34</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" t="s">
         <v>9</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42">
         <v>38</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42">
         <v>348</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42">
         <v>3010</v>
       </c>
-      <c r="N42" s="5">
+      <c r="N42" s="4">
         <f t="shared" ref="N42:N49" si="4">G42/H42</f>
         <v>0.10919540229885058</v>
       </c>
-      <c r="O42" s="4">
+      <c r="O42" s="3">
         <f t="shared" ref="O42:O49" si="5">N42*L42</f>
         <v>328.67816091954023</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43">
         <v>1985</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" t="s">
         <v>34</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" t="s">
         <v>10</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43">
         <v>7</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43">
         <v>49</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43">
         <v>1255</v>
       </c>
-      <c r="N43" s="5">
+      <c r="N43" s="4">
         <f t="shared" si="4"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="O43" s="4">
+      <c r="O43" s="3">
         <f t="shared" si="5"/>
         <v>179.28571428571428</v>
       </c>
     </row>
-    <row r="44" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44">
         <v>1985</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44">
         <v>84</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44">
         <v>317</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44">
         <v>3464</v>
       </c>
-      <c r="N44" s="5">
+      <c r="N44" s="4">
         <f t="shared" si="4"/>
         <v>0.26498422712933756</v>
       </c>
-      <c r="O44" s="4">
+      <c r="O44" s="3">
         <f t="shared" si="5"/>
         <v>917.9053627760253</v>
       </c>
     </row>
-    <row r="45" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45">
         <v>1985</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" t="s">
         <v>34</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" t="s">
         <v>12</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45">
         <v>2</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45">
         <v>339</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45">
         <v>18425</v>
       </c>
-      <c r="N45" s="5">
+      <c r="N45" s="4">
         <f t="shared" si="4"/>
         <v>5.8997050147492625E-3</v>
       </c>
-      <c r="O45" s="4">
+      <c r="O45" s="3">
         <f t="shared" si="5"/>
         <v>108.70206489675516</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46">
         <v>1985</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" t="s">
         <v>34</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" t="s">
         <v>13</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46">
         <v>13</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46">
         <v>180</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46">
         <v>5319</v>
       </c>
-      <c r="N46" s="5">
+      <c r="N46" s="4">
         <f t="shared" si="4"/>
         <v>7.2222222222222215E-2</v>
       </c>
-      <c r="O46" s="4">
+      <c r="O46" s="3">
         <f t="shared" si="5"/>
         <v>384.15</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" t="s">
         <v>38</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47">
         <v>1985</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" t="s">
         <v>34</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47">
         <v>0</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47">
         <v>193</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47">
         <v>5356</v>
       </c>
-      <c r="N47" s="5">
+      <c r="N47" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O47" s="4">
+      <c r="O47" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" t="s">
         <v>38</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48">
         <v>1985</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" t="s">
         <v>34</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" t="s">
         <v>15</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48">
         <v>4</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48">
         <v>73</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48">
         <v>2275</v>
       </c>
-      <c r="N48" s="5">
+      <c r="N48" s="4">
         <f t="shared" si="4"/>
         <v>5.4794520547945202E-2</v>
       </c>
-      <c r="O48" s="4">
+      <c r="O48" s="3">
         <f t="shared" si="5"/>
         <v>124.65753424657534</v>
       </c>
     </row>
-    <row r="49" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" t="s">
         <v>35</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" t="s">
         <v>38</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49">
         <v>1985</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" t="s">
         <v>34</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" t="s">
         <v>36</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49">
         <v>1</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49">
         <v>66</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49">
         <v>10000</v>
       </c>
-      <c r="N49" s="5">
+      <c r="N49" s="4">
         <f t="shared" si="4"/>
         <v>1.5151515151515152E-2</v>
       </c>
-      <c r="O49" s="4">
+      <c r="O49" s="3">
         <f t="shared" si="5"/>
         <v>151.51515151515153</v>
       </c>
@@ -2348,7 +2500,7 @@
         <v>5408</v>
       </c>
       <c r="M50" s="1">
-        <f t="shared" ref="M50:M52" si="6">H50/L50</f>
+        <f>H50/L50</f>
         <v>2.7921597633136095E-2</v>
       </c>
     </row>
@@ -2387,7 +2539,7 @@
         <v>519</v>
       </c>
       <c r="M51" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="M50:M52" si="6">H51/L51</f>
         <v>4.238921001926782E-2</v>
       </c>
     </row>
@@ -3624,4 +3776,1716 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC51CC1-4308-4F4B-8775-A1AA65E8CA58}">
+  <dimension ref="A1:F81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1983</v>
+      </c>
+      <c r="E2">
+        <f>158/4</f>
+        <v>39.5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1983</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E5" si="0">158/4</f>
+        <v>39.5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1983</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>39.5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1983</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>39.5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1983</v>
+      </c>
+      <c r="E6">
+        <f>22/4</f>
+        <v>5.5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1983</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E9" si="1">22/4</f>
+        <v>5.5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1983</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1983</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1983</v>
+      </c>
+      <c r="E10">
+        <f>288/4</f>
+        <v>72</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1983</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11:E13" si="2">288/4</f>
+        <v>72</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>1983</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>1983</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1983</v>
+      </c>
+      <c r="E14">
+        <f>430/4</f>
+        <v>107.5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>1983</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15:E17" si="3">430/4</f>
+        <v>107.5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>1983</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>107.5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>1983</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>107.5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1983</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>1983</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>1983</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>1983</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1984</v>
+      </c>
+      <c r="E22">
+        <f>300/4</f>
+        <v>75</v>
+      </c>
+      <c r="F22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>1984</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ref="E23:E25" si="4">300/4</f>
+        <v>75</v>
+      </c>
+      <c r="F23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>1984</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="F24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>1984</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1984</v>
+      </c>
+      <c r="E26">
+        <f>126/4</f>
+        <v>31.5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>1984</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ref="E27:E29" si="5">126/4</f>
+        <v>31.5</v>
+      </c>
+      <c r="F27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>1984</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="5"/>
+        <v>31.5</v>
+      </c>
+      <c r="F28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>1984</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="5"/>
+        <v>31.5</v>
+      </c>
+      <c r="F29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1984</v>
+      </c>
+      <c r="E30">
+        <f>374 / 4</f>
+        <v>93.5</v>
+      </c>
+      <c r="F30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>1984</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ref="E31:E33" si="6">374 / 4</f>
+        <v>93.5</v>
+      </c>
+      <c r="F31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>1984</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="6"/>
+        <v>93.5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>1984</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="6"/>
+        <v>93.5</v>
+      </c>
+      <c r="F33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1984</v>
+      </c>
+      <c r="E34">
+        <f>571/4</f>
+        <v>142.75</v>
+      </c>
+      <c r="F34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>1984</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ref="E35:E37" si="7">571/4</f>
+        <v>142.75</v>
+      </c>
+      <c r="F35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>1984</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="7"/>
+        <v>142.75</v>
+      </c>
+      <c r="F36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>1984</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="7"/>
+        <v>142.75</v>
+      </c>
+      <c r="F37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1984</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>1984</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>1984</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>1984</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1985</v>
+      </c>
+      <c r="E42">
+        <f>348/4</f>
+        <v>87</v>
+      </c>
+      <c r="F42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>1985</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43:E45" si="8">348/4</f>
+        <v>87</v>
+      </c>
+      <c r="F43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>1985</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="8"/>
+        <v>87</v>
+      </c>
+      <c r="F44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>1985</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="8"/>
+        <v>87</v>
+      </c>
+      <c r="F45" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1985</v>
+      </c>
+      <c r="E46">
+        <f>49/4</f>
+        <v>12.25</v>
+      </c>
+      <c r="F46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>1985</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ref="E47:E49" si="9">49/4</f>
+        <v>12.25</v>
+      </c>
+      <c r="F47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>1985</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="9"/>
+        <v>12.25</v>
+      </c>
+      <c r="F48" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>1985</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="9"/>
+        <v>12.25</v>
+      </c>
+      <c r="F49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1985</v>
+      </c>
+      <c r="E50">
+        <f>317/4</f>
+        <v>79.25</v>
+      </c>
+      <c r="F50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>1985</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ref="E51:E53" si="10">317/4</f>
+        <v>79.25</v>
+      </c>
+      <c r="F51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>1985</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="10"/>
+        <v>79.25</v>
+      </c>
+      <c r="F52" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>1985</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="10"/>
+        <v>79.25</v>
+      </c>
+      <c r="F53" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1985</v>
+      </c>
+      <c r="E54">
+        <f>339/4</f>
+        <v>84.75</v>
+      </c>
+      <c r="F54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>1985</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ref="E55:E57" si="11">339/4</f>
+        <v>84.75</v>
+      </c>
+      <c r="F55" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>1985</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="11"/>
+        <v>84.75</v>
+      </c>
+      <c r="F56" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <v>1985</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="11"/>
+        <v>84.75</v>
+      </c>
+      <c r="F57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1985</v>
+      </c>
+      <c r="E58">
+        <f>180/4</f>
+        <v>45</v>
+      </c>
+      <c r="F58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>1985</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ref="E59:E61" si="12">180/4</f>
+        <v>45</v>
+      </c>
+      <c r="F59" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>1985</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="12"/>
+        <v>45</v>
+      </c>
+      <c r="F60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>1985</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="12"/>
+        <v>45</v>
+      </c>
+      <c r="F61" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1986</v>
+      </c>
+      <c r="E62">
+        <f>401/3</f>
+        <v>133.66666666666666</v>
+      </c>
+      <c r="F62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>1986</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ref="E63:E64" si="13">401/3</f>
+        <v>133.66666666666666</v>
+      </c>
+      <c r="F63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>1986</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="13"/>
+        <v>133.66666666666666</v>
+      </c>
+      <c r="F64" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65">
+        <v>1986</v>
+      </c>
+      <c r="E65">
+        <v>18</v>
+      </c>
+      <c r="F65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1986</v>
+      </c>
+      <c r="E66">
+        <f>36/4</f>
+        <v>9</v>
+      </c>
+      <c r="F66" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>1986</v>
+      </c>
+      <c r="E67">
+        <f>36/4</f>
+        <v>9</v>
+      </c>
+      <c r="F67" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>1986</v>
+      </c>
+      <c r="E68">
+        <f>36/4</f>
+        <v>9</v>
+      </c>
+      <c r="F68" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69">
+        <v>1986</v>
+      </c>
+      <c r="E69">
+        <f>36/4</f>
+        <v>9</v>
+      </c>
+      <c r="F69" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>1986</v>
+      </c>
+      <c r="E70">
+        <f>94/3</f>
+        <v>31.333333333333332</v>
+      </c>
+      <c r="F70" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>1986</v>
+      </c>
+      <c r="E71">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>1986</v>
+      </c>
+      <c r="E72">
+        <f>94/3</f>
+        <v>31.333333333333332</v>
+      </c>
+      <c r="F72" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>1986</v>
+      </c>
+      <c r="E73">
+        <f>94/3</f>
+        <v>31.333333333333332</v>
+      </c>
+      <c r="F73" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>1986</v>
+      </c>
+      <c r="E74">
+        <v>145</v>
+      </c>
+      <c r="F74" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>1986</v>
+      </c>
+      <c r="E75">
+        <f>280/3</f>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="F75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>1986</v>
+      </c>
+      <c r="E76">
+        <f>280/3</f>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="F76" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77">
+        <v>1986</v>
+      </c>
+      <c r="E77">
+        <f>280/3</f>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="F77" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>1986</v>
+      </c>
+      <c r="E78">
+        <v>18</v>
+      </c>
+      <c r="F78" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>74</v>
+      </c>
+      <c r="B79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>1986</v>
+      </c>
+      <c r="E79">
+        <f>48/3</f>
+        <v>16</v>
+      </c>
+      <c r="F79" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>74</v>
+      </c>
+      <c r="B80" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80">
+        <v>1986</v>
+      </c>
+      <c r="E80">
+        <f>48/3</f>
+        <v>16</v>
+      </c>
+      <c r="F80" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>74</v>
+      </c>
+      <c r="B81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="D81">
+        <v>1986</v>
+      </c>
+      <c r="E81">
+        <f>48/3</f>
+        <v>16</v>
+      </c>
+      <c r="F81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/historical_estimates/processed/historical_regional_bycatch_rates.xlsx
+++ b/data/historical_estimates/processed/historical_regional_bycatch_rates.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/ca_set_gillnet_bycatch/data/historical_estimates/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C55C3C4-AD0C-6E41-A1BF-178195ECB62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2379F74C-8A31-2E49-A5B2-76F996CE41A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17640" yWindow="500" windowWidth="29260" windowHeight="20200" activeTab="1" xr2:uid="{5A99BFBD-397F-5E4D-9DDE-0D5E2C6602A4}"/>
+    <workbookView xWindow="360" yWindow="500" windowWidth="29260" windowHeight="20200" activeTab="2" xr2:uid="{5A99BFBD-397F-5E4D-9DDE-0D5E2C6602A4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Raw" sheetId="1" r:id="rId1"/>
+    <sheet name="Quarters" sheetId="2" r:id="rId2"/>
+    <sheet name="Annual" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="96">
   <si>
     <t>reference</t>
   </si>
@@ -298,6 +299,33 @@
   </si>
   <si>
     <t>403 / 3</t>
+  </si>
+  <si>
+    <t>Ventura</t>
+  </si>
+  <si>
+    <t>sea_lion</t>
+  </si>
+  <si>
+    <t>harbor_seal</t>
+  </si>
+  <si>
+    <t>harbor_porpoise</t>
+  </si>
+  <si>
+    <t>Diamond &amp; Hanan 1986</t>
+  </si>
+  <si>
+    <t>Hanan &amp; Diamon 1989</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Use Southern California</t>
+  </si>
+  <si>
+    <t>Harbor seal is missing</t>
   </si>
 </sst>
 </file>
@@ -338,12 +366,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -359,7 +393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -367,6 +401,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,8 +720,8 @@
   <dimension ref="A1:O87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2539,7 +2574,7 @@
         <v>519</v>
       </c>
       <c r="M51" s="1">
-        <f t="shared" ref="M50:M52" si="6">H51/L51</f>
+        <f t="shared" ref="M51:M52" si="6">H51/L51</f>
         <v>4.238921001926782E-2</v>
       </c>
     </row>
@@ -3782,8 +3817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC51CC1-4308-4F4B-8775-A1AA65E8CA58}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5488,4 +5523,796 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08542224-AC8E-4144-AF8A-EFD89AC66E2E}">
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>1983</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>158</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>1983</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>1983</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>288</v>
+      </c>
+      <c r="E4">
+        <v>41</v>
+      </c>
+      <c r="F4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>1983</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5">
+        <v>430</v>
+      </c>
+      <c r="E5">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>1983</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>430</v>
+      </c>
+      <c r="E6">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1983</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1984</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>300</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1984</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>126</v>
+      </c>
+      <c r="E9">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1984</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>374</v>
+      </c>
+      <c r="E10">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>1984</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11">
+        <v>571</v>
+      </c>
+      <c r="E11">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>1984</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>571</v>
+      </c>
+      <c r="E12">
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1984</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>1985</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>348</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>1985</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>49</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>1985</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>317</v>
+      </c>
+      <c r="E16">
+        <v>25</v>
+      </c>
+      <c r="F16">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>1985</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17">
+        <v>339</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>1985</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>339</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>1985</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>180</v>
+      </c>
+      <c r="E19">
+        <v>44</v>
+      </c>
+      <c r="F19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20">
+        <v>1986</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>419</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <f>5+0+27+25+3+0</f>
+        <v>60</v>
+      </c>
+      <c r="G20">
+        <f>6+6</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21">
+        <v>1986</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>36</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <f>8+1</f>
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22">
+        <v>1986</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <f>43+94</f>
+        <v>137</v>
+      </c>
+      <c r="E22">
+        <f>8+5</f>
+        <v>13</v>
+      </c>
+      <c r="F22">
+        <f>20+5</f>
+        <v>25</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23">
+        <v>1986</v>
+      </c>
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23">
+        <f>145+280</f>
+        <v>425</v>
+      </c>
+      <c r="E23">
+        <f>6+9</f>
+        <v>15</v>
+      </c>
+      <c r="F23">
+        <v>8</v>
+      </c>
+      <c r="H23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24">
+        <v>1986</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <f>145+280</f>
+        <v>425</v>
+      </c>
+      <c r="E24">
+        <f>6+9</f>
+        <v>15</v>
+      </c>
+      <c r="F24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25">
+        <v>1986</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25">
+        <f>18+48</f>
+        <v>66</v>
+      </c>
+      <c r="E25">
+        <f>49+5</f>
+        <v>54</v>
+      </c>
+      <c r="H25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26">
+        <v>1983</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>151</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27">
+        <v>1983</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27">
+        <v>22</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28">
+        <v>1983</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>288</v>
+      </c>
+      <c r="G28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="5">
+        <v>1983</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="5">
+        <v>1983</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31">
+        <v>1984</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>299</v>
+      </c>
+      <c r="G31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <v>1984</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32">
+        <v>126</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>1984</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33">
+        <v>374</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="5">
+        <v>1984</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="5">
+        <v>1984</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36">
+        <v>1985</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36">
+        <v>348</v>
+      </c>
+      <c r="G36">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37">
+        <v>1985</v>
+      </c>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37">
+        <v>49</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38">
+        <v>1985</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38">
+        <v>317</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="5">
+        <v>1985</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="5">
+        <v>1985</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>